--- a/app/reports3.xlsx
+++ b/app/reports3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,34 +434,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>19_06_21</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>20_06_21</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>22_06_21</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>23_06_21</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>51713</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>bushra</t>
+          <t>09_07_21</t>
         </is>
       </c>
     </row>

--- a/app/reports3.xlsx
+++ b/app/reports3.xlsx
@@ -434,7 +434,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>09_07_21</t>
+          <t>13_07_21</t>
         </is>
       </c>
     </row>

--- a/app/reports3.xlsx
+++ b/app/reports3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,8 +434,139 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>13_07_21</t>
-        </is>
+          <t>14_07_21</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>24_07_21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>51744</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bisma</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>51742</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>bushra</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51753</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>nameera</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>51754</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>duha</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>51755</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>hibbah</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>51756</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>aqsa</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>51757</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>rukhma</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
